--- a/results_pubmed.xlsx
+++ b/results_pubmed.xlsx
@@ -1,459 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-  </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
-</styleSheet>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B201"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>pmid</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>raw</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>40290356</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="402">
+  <si>
+    <t>pmid</t>
+  </si>
+  <si>
+    <t>raw</t>
+  </si>
+  <si>
+    <t>40290356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 40290356
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -531,18 +103,12 @@
 SO  - J Emerg Trauma Shock. 2025 Jan-Mar;18(1):22-25. doi: 10.4103/jets.jets_40_24. 
       Epub 2024 Nov 5.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>40094135</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>40094135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 40094135
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -622,18 +188,12 @@
 SO  - J West Afr Coll Surg. 2025 Apr-Jun;15(2):157-163. doi: 10.4103/jwas.jwas_2_24. 
       Epub 2024 Sep 2.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>40078850</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>40078850</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 40078850
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -704,18 +264,12 @@
 SO  - Indian J Plast Surg. 2024 Aug 16;58(1):73-75. doi: 10.1055/s-0044-1788811. 
       eCollection 2025 Feb.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>39957870</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39957870</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39957870
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -806,18 +360,12 @@
 SO  - Ann Maxillofac Surg. 2024 Jul-Dec;14(2):192-195. doi: 10.4103/ams.ams_131_24. 
       Epub 2025 Jan 9.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>39957869</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39957869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39957869
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -898,18 +446,12 @@
 SO  - Ann Maxillofac Surg. 2024 Jul-Dec;14(2):171-174. doi: 10.4103/ams.ams_72_24. Epub 
       2024 Sep 20.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>39911466</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39911466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39911466
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -1000,18 +542,12 @@
 SO  - J Emerg Trauma Shock. 2024 Oct-Dec;17(4):212-220. doi: 10.4103/jets.jets_19_24. 
       Epub 2024 Aug 28.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>39902450</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39902450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39902450
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -1117,18 +653,12 @@
 SO  - J Maxillofac Oral Surg. 2025 Feb;24(1):137-143. doi: 10.1007/s12663-024-02176-7. 
       Epub 2024 Apr 12.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>39830461</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39830461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39830461
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -1234,18 +764,12 @@
 SO  - Natl J Maxillofac Surg. 2024 Sep-Dec;15(3):494-498. doi: 
       10.4103/njms.njms_102_23. Epub 2024 Nov 16.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>39822471</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39822471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39822471
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -1349,18 +873,12 @@
 SO  - Cureus. 2024 Dec 16;16(12):e75792. doi: 10.7759/cureus.75792. eCollection 2024 
       Dec.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>39803140</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39803140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39803140
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -1453,18 +971,12 @@
 SO  - Cureus. 2024 Dec 13;16(12):e75630. doi: 10.7759/cureus.75630. eCollection 2024 
       Dec.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>39802259</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39802259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39802259
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -1553,18 +1065,12 @@
 SO  - Indian J Crit Care Med. 2025 Jan;29(1):59-64. doi: 
       10.5005/jp-journals-10071-24877. Epub 2024 Dec 30.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>39744252</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39744252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39744252
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -1683,18 +1189,12 @@
 SO  - Cureus. 2024 Dec 1;16(12):e74934. doi: 10.7759/cureus.74934. eCollection 2024 
       Dec.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>39741725</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39741725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39741725
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -1795,18 +1295,12 @@
 SO  - Indian J Plast Surg. 2024 Jun 12;57(Suppl 1):S16-S23. doi: 
       10.1055/s-0044-1787659. eCollection 2024 Dec.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>39735881</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39735881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39735881
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -1884,18 +1378,12 @@
 SO  - Indian J Orthop. 2024 Nov 12;59(1):128-130. doi: 10.1007/s43465-024-01270-9. 
       eCollection 2025 Jan.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>39735816</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39735816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39735816
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -1990,18 +1478,12 @@
 SO  - J West Afr Coll Surg. 2025 Jan-Mar;15(1):75-82. doi: 10.4103/jwas.jwas_188_23. 
       Epub 2024 Aug 2.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>39734424</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39734424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39734424
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -2091,18 +1573,12 @@
 SO  - Appl Bionics Biomech. 2024 Dec 22;2024:2451501. doi: 10.1155/abb/2451501. 
       eCollection 2024.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>39725924</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39725924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39725924
 OWN - NLM
 STAT- MEDLINE
@@ -2249,18 +1725,12 @@
 PST - epublish
 SO  - BMC Oral Health. 2024 Dec 26;24(1):1560. doi: 10.1186/s12903-024-05366-4.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>39723007</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39723007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39723007
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -2352,18 +1822,12 @@
 SO  - J Family Med Prim Care. 2024 Nov;13(11):4994-5001. doi: 
       10.4103/jfmpc.jfmpc_486_24. Epub 2024 Nov 18.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>39722916</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39722916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39722916
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -2481,18 +1945,12 @@
 SO  - J Family Med Prim Care. 2024 Nov;13(11):5286-5295. doi: 
       10.4103/jfmpc.jfmpc_1024_24. Epub 2024 Nov 18.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>39698448</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39698448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39698448
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -2583,18 +2041,12 @@
 SO  - J Clin Orthop Trauma. 2024 Nov 23;59:102837. doi: 10.1016/j.jcot.2024.102837. 
       eCollection 2024 Dec.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>39695859</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39695859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39695859
 OWN - NLM
 STAT- MEDLINE
@@ -2846,18 +2298,12 @@
 PST - epublish
 SO  - Trials. 2024 Dec 18;25(1):825. doi: 10.1186/s13063-024-08644-2.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>39669031</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39669031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39669031
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -2934,18 +2380,12 @@
 PST - ppublish
 SO  - J Orthop Case Rep. 2024 Dec;14(12):137-141. doi: 10.13107/jocr.2024.v14.i12.5050.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>39669023</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39669023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39669023
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -3028,18 +2468,12 @@
 PST - ppublish
 SO  - J Orthop Case Rep. 2024 Dec;14(12):120-124. doi: 10.13107/jocr.2024.v14.i12.5044.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>39666862</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39666862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39666862
 OWN - NLM
 STAT- MEDLINE
@@ -3135,18 +2569,12 @@
 SO  - Traffic Inj Prev. 2025;26(4):466-473. doi: 10.1080/15389588.2024.2423022. Epub 
       2024 Dec 12.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>39651519</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39651519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39651519
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -3217,18 +2645,12 @@
 SO  - Oman J Ophthalmol. 2024 Oct 24;17(3):384-387. doi: 10.4103/ojo.ojo_258_23. 
       eCollection 2024 Sep-Dec.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>39650719</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39650719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39650719
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -3329,18 +2751,12 @@
 SO  - J Clin Orthop Trauma. 2024 Nov 12;59:102805. doi: 10.1016/j.jcot.2024.102805. 
       eCollection 2024 Dec.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>39649855</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39649855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39649855
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -3437,18 +2853,12 @@
 SO  - Ann Med Surg (Lond). 2024 Oct 16;86(12):7362-7367. doi: 
       10.1097/MS9.0000000000002653. eCollection 2024 Dec.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>39641504</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39641504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39641504
 OWN - NLM
 STAT- MEDLINE
@@ -3553,18 +2963,12 @@
 PST - ppublish
 SO  - Dent Traumatol. 2025 Jun;41(3):305-313. doi: 10.1111/edt.13024. Epub 2024 Dec 6.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>39629407</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39629407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39629407
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -3669,18 +3073,12 @@
 SO  - J Family Med Prim Care. 2024 Oct;13(10):4560-4568. doi: 
       10.4103/jfmpc.jfmpc_63_24. Epub 2024 Oct 18.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>39618466</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39618466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39618466
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -3806,18 +3204,12 @@
 SO  - J Maxillofac Oral Surg. 2024 Dec;23(6):1620-1626. doi: 
       10.1007/s12663-024-02332-z. Epub 2024 Sep 20.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>39618463</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39618463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39618463
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -3926,18 +3318,12 @@
 SO  - J Maxillofac Oral Surg. 2024 Dec;23(6):1634-1645. doi: 
       10.1007/s12663-024-02296-0. Epub 2024 Aug 10.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>39603918</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39603918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39603918
 OWN - NLM
 STAT- Publisher
@@ -3979,18 +3365,12 @@
 PST - aheadofprint
 SO  - Injury. 2024 Oct 30:112009. doi: 10.1016/j.injury.2024.112009.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>39600737</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39600737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39600737
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -4088,18 +3468,12 @@
 SO  - Cureus. 2024 Oct 27;16(10):e72470. doi: 10.7759/cureus.72470. eCollection 2024 
       Oct.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>39583335</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39583335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39583335
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -4177,18 +3551,12 @@
 SO  - Int J Burns Trauma. 2024 Oct 15;14(5):101-106. doi: 10.62347/FZKH6176. 
       eCollection 2024.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>39577395</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39577395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39577395
 OWN - NLM
 STAT- MEDLINE
@@ -4300,18 +3668,12 @@
 PST - epublish
 SO  - Biomed Mater. 2024 Dec 5;20(1). doi: 10.1088/1748-605X/ad967c.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>39559058</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39559058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39559058
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -4407,18 +3769,12 @@
 SO  - Indian J Otolaryngol Head Neck Surg. 2024 Dec;76(6):5486-5494. doi: 
       10.1007/s12070-024-05012-z. Epub 2024 Sep 11.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>39556458</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39556458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39556458
 OWN - NLM
 STAT- MEDLINE
@@ -4509,18 +3865,12 @@
 SO  - Traffic Inj Prev. 2025;26(4):482-489. doi: 10.1080/15389588.2024.2416485. Epub 
       2024 Nov 18.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>39552832</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39552832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39552832
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -4612,18 +3962,12 @@
 SO  - J Emerg Trauma Shock. 2024 Jul-Sep;17(3):166-171. doi: 10.4103/jets.jets_139_23. 
       Epub 2024 Aug 2.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>39544616</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39544616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39544616
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -4726,18 +4070,12 @@
 SO  - Cureus. 2024 Oct 15;16(10):e71534. doi: 10.7759/cureus.71534. eCollection 2024 
       Oct.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>39544518</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39544518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39544518
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -4873,18 +4211,12 @@
 SO  - Indian J Orthop. 2024 Sep 21;58(11):1594-1606. doi: 10.1007/s43465-024-01256-7. 
       eCollection 2024 Nov.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>39524287</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39524287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39524287
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -4968,18 +4300,12 @@
 PST - ppublish
 SO  - J Orthop Case Rep. 2024 Nov;14(11):203-207. doi: 10.13107/jocr.2024.v14.i11.4968.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>39533208</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39533208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39533208
 OWN - NLM
 STAT- MEDLINE
@@ -5108,18 +4434,12 @@
 PST - epublish
 SO  - BMC Public Health. 2024 Nov 12;24(1):3132. doi: 10.1186/s12889-024-20511-y.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>39464986</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39464986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39464986
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -5205,18 +4525,12 @@
 SO  - J Family Med Prim Care. 2024 Sep;13(9):3735-3740. doi: 
       10.4103/jfmpc.jfmpc_124_24. Epub 2024 Sep 11.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>39448251</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39448251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39448251
 OWN - NLM
 STAT- Publisher
@@ -5306,18 +4620,12 @@
 PST - aheadofprint
 SO  - Inj Prev. 2024 Oct 24:ip-2024-045262. doi: 10.1136/ip-2024-045262.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>39404975</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39404975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39404975
 OWN - NLM
 STAT- MEDLINE
@@ -5416,18 +4724,12 @@
 SO  - J Prev (2022). 2025 Feb;46(1):59-82. doi: 10.1007/s10935-024-00811-0. Epub 2024 
       Oct 15.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>39403288</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39403288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39403288
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -5550,18 +4852,12 @@
 SO  - Access Microbiol. 2024 Oct 14;6(10):000836.v4. doi: 10.1099/acmi.0.000836.v4. 
       eCollection 2024.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>39393972</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39393972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39393972
 OWN - NLM
 STAT- MEDLINE
@@ -5704,18 +5000,12 @@
 SO  - Injury. 2025 Jan;56(1):111928. doi: 10.1016/j.injury.2024.111928. Epub 2024 Sep 
       26.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>39381578</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39381578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39381578
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -5806,18 +5096,12 @@
 SO  - J Trauma Inj. 2023 Dec;36(4):385-392. doi: 10.20408/jti.2023.0032. Epub 2023 Nov 
       17.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>39381575</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39381575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39381575
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -5922,18 +5206,12 @@
 SO  - J Trauma Inj. 2023 Dec;36(4):369-375. doi: 10.20408/jti.2023.0042. Epub 2023 Nov 
       23.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>39381295</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39381295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39381295
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -6010,18 +5288,12 @@
 PST - ppublish
 SO  - J Orthop Case Rep. 2024 Oct;14(10):45-49. doi: 10.13107/jocr.2024.v14.i10.4806.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>39381284</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39381284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39381284
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -6108,18 +5380,12 @@
 PST - ppublish
 SO  - J Orthop Case Rep. 2024 Oct;14(10):225-229. doi: 10.13107/jocr.2024.v14.i10.4872.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>39381187</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39381187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39381187
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -6228,18 +5494,12 @@
 SO  - J Maxillofac Oral Surg. 2024 Oct;23(5):1195-1203. doi: 
       10.1007/s12663-023-01987-4. Epub 2023 Aug 31.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>39376759</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39376759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39376759
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -6350,18 +5610,12 @@
 SO  - J Maxillofac Oral Surg. 2024 Oct;23(5):1175-1181. doi: 
       10.1007/s12663-024-02310-5. Epub 2024 Aug 17.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>39376755</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39376755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39376755
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -6442,18 +5696,12 @@
 SO  - J Maxillofac Oral Surg. 2024 Oct;23(5):1190-1194. doi: 
       10.1007/s12663-023-01870-2. Epub 2023 Feb 27.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>39361791</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39361791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39361791
 OWN - NLM
 STAT- MEDLINE
@@ -6535,18 +5783,12 @@
 PST - ppublish
 SO  - Indian J Med Res. 2024 Mar &amp; Apr;159(3 &amp; 4):267-273. doi: 10.25259/IJMR_274_2024.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>39354194</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39354194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39354194
 OWN - NLM
 STAT- MEDLINE
@@ -6622,18 +5864,12 @@
 PST - epublish
 SO  - Environ Monit Assess. 2024 Oct 1;196(10):999. doi: 10.1007/s10661-024-13183-z.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>39346226</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39346226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39346226
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -6706,18 +5942,12 @@
 SO  - J Pharm Bioallied Sci. 2024 Jul;16(Suppl 3):S2941-S2943. doi: 
       10.4103/jpbs.jpbs_1244_23. Epub 2024 Mar 5.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>39309374</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39309374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39309374
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -6799,18 +6029,12 @@
 SO  - J West Afr Coll Surg. 2024 Oct-Dec;14(4):359-363. doi: 10.4103/jwas.jwas_81_23. 
       Epub 2024 Jul 18.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>39294177</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39294177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39294177
 OWN - NLM
 STAT- MEDLINE
@@ -6920,18 +6144,12 @@
 PST - epublish
 SO  - Sci Rep. 2024 Sep 18;14(1):21830. doi: 10.1038/s41598-024-72357-4.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>39285022</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39285022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39285022
 OWN - NLM
 STAT- MEDLINE
@@ -7036,18 +6254,12 @@
 SO  - Int Orthop. 2024 Nov;48(11):2979-2991. doi: 10.1007/s00264-024-06307-0. Epub 2024 
       Sep 16.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>39253673</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39253673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39253673
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -7134,18 +6346,12 @@
 PST - ppublish
 SO  - J Orthop Case Rep. 2024 Sep;14(9):98-104. doi: 10.13107/jocr.2024.v14.i09.4744.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>39253672</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39253672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39253672
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -7221,18 +6427,12 @@
 PST - ppublish
 SO  - J Orthop Case Rep. 2024 Sep;14(9):141-146. doi: 10.13107/jocr.2024.v14.i09.4758.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>39253665</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39253665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39253665
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -7303,18 +6503,12 @@
 PST - ppublish
 SO  - J Orthop Case Rep. 2024 Sep;14(9):19-23. doi: 10.13107/jocr.2024.v14.i09.4714.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>39253657</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39253657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39253657
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -7395,18 +6589,12 @@
 PST - ppublish
 SO  - J Orthop Case Rep. 2024 Sep;14(9):41-44. doi: 10.13107/jocr.2024.v14.i09.4722.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>39253655</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39253655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39253655
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -7497,18 +6685,12 @@
 PST - ppublish
 SO  - J Orthop Case Rep. 2024 Sep;14(9):194-201. doi: 10.13107/jocr.2024.v14.i09.4778.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>39244860</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39244860</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39244860
 OWN - NLM
 STAT- MEDLINE
@@ -7629,18 +6811,12 @@
 SO  - Injury. 2024 Nov;55(11):111854. doi: 10.1016/j.injury.2024.111854. Epub 2024 Sep 
       1.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>39234145</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39234145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39234145
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -7725,18 +6901,12 @@
 SO  - Natl J Maxillofac Surg. 2024 May-Aug;15(2):246-251. doi: 
       10.4103/njms.njms_178_22. Epub 2024 Jul 24.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>39228558</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39228558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39228558
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -7819,18 +6989,12 @@
 SO  - J Family Med Prim Care. 2024 Aug;13(8):3074-3077. doi: 
       10.4103/jfmpc.jfmpc_1925_23. Epub 2024 Jul 26.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>39222801</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39222801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39222801
 OWN - NLM
 STAT- MEDLINE
@@ -7943,18 +7107,12 @@
 SO  - Surv Ophthalmol. 2025 Jan-Feb;70(1):75-85. doi: 
       10.1016/j.survophthal.2024.08.008. Epub 2024 Aug 31.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>39206221</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39206221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39206221
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -8040,18 +7198,12 @@
 SO  - Data Brief. 2024 Jul 31;56:110790. doi: 10.1016/j.dib.2024.110790. eCollection 
       2024 Oct.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>39205912</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39205912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39205912
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -8138,18 +7290,12 @@
 SO  - Asian J Neurosurg. 2024 Jun 25;19(3):374-379. doi: 10.1055/s-0043-1776992. 
       eCollection 2024 Sep.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>39205886</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39205886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39205886
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -8250,18 +7396,12 @@
 SO  - Asian J Neurosurg. 2024 Jun 11;19(3):439-444. doi: 10.1055/s-0044-1787794. 
       eCollection 2024 Sep.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>39205878</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39205878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39205878
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -8363,18 +7503,12 @@
 SO  - Asian J Neurosurg. 2024 Jun 21;19(3):380-385. doi: 10.1055/s-0044-1787090. 
       eCollection 2024 Sep.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>39188494</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39188494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39188494
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -8471,18 +7605,12 @@
 SO  - Cureus. 2024 Jul 27;16(7):e65486. doi: 10.7759/cureus.65486. eCollection 2024 
       Jul.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>39183614</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39183614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39183614
 OWN - NLM
 STAT- MEDLINE
@@ -8548,18 +7676,12 @@
 PST - ppublish
 SO  - Indian J Med Ethics. 2024 Jul-Sep;IX(3):215-216. doi: 10.20529/IJME.2024.030.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>39157492</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39157492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39157492
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -8639,18 +7761,12 @@
 PST - ppublish
 SO  - J Orthop Case Rep. 2024 Aug;14(8):99-104. doi: 10.13107/jocr.2024.v14.i08.4662.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>39157470</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39157470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39157470
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -8737,18 +7853,12 @@
 PST - ppublish
 SO  - J Orthop Case Rep. 2024 Aug;14(8):141-147. doi: 10.13107/jocr.2024.v14.i08.4678.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>39156446</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39156446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39156446
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -8843,18 +7953,12 @@
 SO  - Cureus. 2024 Jul 18;16(7):e64839. doi: 10.7759/cureus.64839. eCollection 2024 
       Jul.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>39151221</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39151221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39151221
 OWN - NLM
 STAT- MEDLINE
@@ -8954,18 +8058,12 @@
 SO  - Clin Neurol Neurosurg. 2024 Oct;245:108494. doi: 10.1016/j.clineuro.2024.108494. 
       Epub 2024 Aug 3.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>39149630</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39149630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39149630
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -9065,18 +8163,12 @@
 SO  - Cureus. 2024 Jul 15;16(7):e64622. doi: 10.7759/cureus.64622. eCollection 2024 
       Jul.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>39138959</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39138959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39138959
 OWN - NLM
 STAT- MEDLINE
@@ -9162,18 +8254,12 @@
 SO  - Ann Afr Med. 2024 Oct 1;23(4):748-751. doi: 10.4103/aam.aam_62_24. Epub 2024 Aug 
       13.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>39132704</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39132704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39132704
 OWN - NLM
 STAT- MEDLINE
@@ -9262,18 +8348,12 @@
 SO  - Int J Inj Contr Saf Promot. 2024 Dec;31(4):579-590. doi: 
       10.1080/17457300.2024.2389527. Epub 2024 Aug 12.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>39118923</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39118923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39118923
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -9382,18 +8462,12 @@
 SO  - J Maxillofac Oral Surg. 2024 Aug;23(4):1041-1047. doi: 
       10.1007/s12663-024-02111-w. Epub 2024 Jan 23.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>39108686</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39108686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39108686
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -9475,18 +8549,12 @@
 SO  - Turk J Emerg Med. 2024 Jul 1;24(3):172-175. doi: 10.4103/tjem.tjem_253_23. 
       eCollection 2024 Jul-Sep.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>39003872</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39003872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39003872
 OWN - NLM
 STAT- MEDLINE
@@ -9586,18 +8654,12 @@
 SO  - Accid Anal Prev. 2024 Oct;206:107714. doi: 10.1016/j.aap.2024.107714. Epub 2024 
       Jul 14.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>38974569</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38974569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38974569
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -9728,18 +8790,12 @@
 SO  - Surg Neurol Int. 2024 Jun 28;15:216. doi: 10.25259/SNI_108_2024. eCollection 
       2024.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>38952473</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38952473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38952473
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -9826,18 +8882,12 @@
 SO  - Trauma Case Rep. 2024 Jun 6;52:101061. doi: 10.1016/j.tcr.2024.101061. 
       eCollection 2024 Aug.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>38947660</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38947660</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38947660
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -9933,18 +8983,12 @@
 SO  - Cureus. 2024 May 31;16(5):e61425. doi: 10.7759/cureus.61425. eCollection 2024 
       May.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>38910986</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38910986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38910986
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -10050,18 +9094,12 @@
 PST - ppublish
 SO  - J Orthop Case Rep. 2024 Jun;14(6):118-124. doi: 10.13107/jocr.2024.v14.i06.4524.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>38910969</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38910969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38910969
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -10134,18 +9172,12 @@
 PST - ppublish
 SO  - J Orthop Case Rep. 2024 Jun;14(6):68-72. doi: 10.13107/jocr.2024.v14.i06.4506.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>32310407</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>32310407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 32310407
 STAT- Publisher
 CTDT- 20240622
@@ -10247,18 +9279,12 @@
 CRDT- 2024/06/22 00:00
 AID - NBK555947 [bookaccession]
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>38886746</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38886746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38886746
 OWN - NLM
 STAT- MEDLINE
@@ -10360,18 +9386,12 @@
 PST - epublish
 SO  - J Med Case Rep. 2024 Jun 18;18(1):293. doi: 10.1186/s13256-024-04490-7.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>38883469</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38883469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38883469
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -10467,18 +9487,12 @@
 SO  - Indian J Otolaryngol Head Neck Surg. 2024 Jun;76(3):2367-2372. doi: 
       10.1007/s12070-024-04519-9. Epub 2024 Jan 23.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>38832922</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38832922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38832922
 OWN - NLM
 STAT- MEDLINE
@@ -10578,18 +9592,12 @@
 SO  - Traffic Inj Prev. 2024;25(6):870-878. doi: 10.1080/15389588.2024.2350695. Epub 
       2024 Jun 4.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>38804808</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38804808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38804808
 OWN - NLM
 STAT- MEDLINE
@@ -10677,18 +9685,12 @@
 SO  - Indian J Ophthalmol. 2024 Jun 1;72(6):921. doi: 10.4103/IJO.IJO_2295_23. Epub 
       2024 May 24.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>38789101</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38789101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38789101
 OWN - NLM
 STAT- MEDLINE
@@ -10733,18 +9735,12 @@
 SO  - Int J Inj Contr Saf Promot. 2024 Jun;31(2):163-164. doi: 
       10.1080/17457300.2024.2351786. Epub 2024 May 24.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>38784894</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38784894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38784894
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -10824,18 +9820,12 @@
 PST - ppublish
 SO  - J Orthop Case Rep. 2024 May;14(5):50-55. doi: 10.13107/jocr.2024.v14.i05.4430.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>38784878</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38784878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38784878
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -10926,18 +9916,12 @@
 PST - ppublish
 SO  - J Orthop Case Rep. 2024 May;14(5):88-93. doi: 10.13107/jocr.2024.v14.i05.4444.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>38782442</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38782442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38782442
 OWN - NLM
 STAT- MEDLINE
@@ -11020,18 +10004,12 @@
 PST - epublish
 SO  - BMJ Case Rep. 2024 May 22;17(5):e259424. doi: 10.1136/bcr-2023-259424.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>38779396</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38779396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38779396
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -11124,18 +10102,12 @@
 SO  - Craniomaxillofac Trauma Reconstr. 2024 Jun;17(2):104-114. doi: 
       10.1177/19433875231171749. Epub 2023 Apr 20.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>38768387</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38768387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38768387
 OWN - NLM
 STAT- MEDLINE
@@ -11216,18 +10188,12 @@
 SO  - Traffic Inj Prev. 2024;25(6):852-859. doi: 10.1080/15389588.2024.2348729. Epub 
       2024 May 20.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>38766413</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38766413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38766413
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -11337,18 +10303,12 @@
 SO  - Turk J Emerg Med. 2024 Apr 4;24(2):90-96. doi: 10.4103/tjem.tjem_219_23. 
       eCollection 2024 Apr-Jun.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>38764567</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38764567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38764567
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -11454,18 +10414,12 @@
 SO  - Saudi J Med Med Sci. 2024 Apr-Jun;12(2):175-181. doi: 10.4103/sjmms.sjmms_330_23. 
       Epub 2024 Apr 5.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>38739817</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38739817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38739817
 OWN - NLM
 STAT- MEDLINE
@@ -11564,18 +10518,12 @@
 SO  - Indian J Dent Res. 2023 Oct 1;34(4):387-390. doi: 10.4103/ijdr.ijdr_731_22. Epub 
       2024 Apr 19.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>38738209</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38738209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38738209
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -11667,18 +10615,12 @@
 SO  - Indian J Crit Care Med. 2024 May;28(5):475-482. doi: 
       10.5005/jp-journals-10071-24664.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>38733467</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38733467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38733467
 OWN - NLM
 STAT- MEDLINE
@@ -11786,18 +10728,12 @@
 SO  - Forensic Sci Med Pathol. 2024 Dec;20(4):1360-1370. doi: 
       10.1007/s12024-024-00825-4. Epub 2024 May 11.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>38725015</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38725015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38725015
 OWN - NLM
 STAT- MEDLINE
@@ -11912,18 +10848,12 @@
 PST - epublish
 SO  - Global Health. 2024 May 10;20(1):42. doi: 10.1186/s12992-024-01041-z.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>38723508</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38723508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38723508
 OWN - NLM
 STAT- MEDLINE
@@ -12031,18 +10961,12 @@
 SO  - J Plast Reconstr Aesthet Surg. 2024 Jun;93:235-241. doi: 
       10.1016/j.bjps.2024.04.032. Epub 2024 Apr 15.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>38720504</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38720504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38720504
 OWN - NLM
 STAT- MEDLINE
@@ -12114,18 +11038,12 @@
 PST - ppublish
 SO  - J Assoc Physicians India. 2023 Nov;71(11):89-93. doi: 10.59556/japi.71.0389.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>38709345</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38709345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38709345
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -12223,18 +11141,12 @@
 PST - epublish
 SO  - CVIR Endovasc. 2024 May 6;7(1):43. doi: 10.1186/s42155-024-00455-5.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>38700508</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38700508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38700508
 OWN - NLM
 STAT- Publisher
@@ -12301,18 +11213,12 @@
 PST - aheadofprint
 SO  - Med Leg J. 2024 May 3:258172241233403. doi: 10.1177/00258172241233403.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>38682054</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38682054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38682054
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -12386,18 +11292,12 @@
 PST - ppublish
 SO  - Iran J Microbiol. 2024 Feb;16(1):145-150. doi: 10.18502/ijm.v16i1.14884.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>38669352</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38669352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38669352
 OWN - NLM
 STAT- MEDLINE
@@ -12470,18 +11370,12 @@
 SO  - JBJS Case Connect. 2024 Apr 26;14(2). doi: 10.2106/JBJS.CC.23.00473. eCollection 
       2024 Apr 1.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>38660372</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38660372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38660372
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -12552,18 +11446,12 @@
 SO  - J Clin Orthop Trauma. 2024 Apr 14;51:102403. doi: 10.1016/j.jcot.2024.102403. 
       eCollection 2024 Apr.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>38650570</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38650570</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38650570
 OWN - NLM
 STAT- MEDLINE
@@ -12660,18 +11548,12 @@
 PST - ppublish
 SO  - Turk Neurosurg. 2024;34(3):499-504. doi: 10.5137/1019-5149.JTN.44330-23.2.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>38647009</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38647009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38647009
 OWN - NLM
 STAT- MEDLINE
@@ -12780,18 +11662,12 @@
 PST - epublish
 SO  - Acta Odontol Scand. 2024 Apr 10;83:126-131. doi: 10.2340/aos.v83.40250.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>38638651</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38638651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38638651
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -12866,18 +11742,12 @@
 PST - ppublish
 SO  - Malays Orthop J. 2024 Mar;18(1):84-90. doi: 10.5704/MOJ.2403.011.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>38627056</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38627056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38627056
 OWN - NLM
 STAT- MEDLINE
@@ -12958,18 +11828,12 @@
 PST - epublish
 SO  - BMJ Case Rep. 2024 Apr 16;17(4):e255348. doi: 10.1136/bcr-2023-255348.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>38619162</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38619162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38619162
 OWN - NLM
 STAT- MEDLINE
@@ -13035,18 +11899,12 @@
 SO  - Med Leg J. 2024 Dec;92(4):213-217. doi: 10.1177/00258172241228812. Epub 2024 Apr 
       15.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>38616471</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38616471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38616471
 OWN - NLM
 STAT- Publisher
@@ -13134,18 +11992,12 @@
 SO  - Chin J Traumatol. 2024 Mar 22:S1008-1275(24)00035-X. doi: 
       10.1016/j.cjtee.2024.03.008.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>38605810</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38605810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38605810
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -13272,18 +12124,12 @@
 SO  - J Family Med Prim Care. 2024 Feb;13(2):704-712. doi: 10.4103/jfmpc.jfmpc_1832_23. 
       Epub 2024 Feb 22.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>38605763</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38605763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38605763
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -13372,18 +12218,12 @@
 SO  - J Family Med Prim Care. 2024 Feb;13(2):656-659. doi: 10.4103/jfmpc.jfmpc_1271_23. 
       Epub 2024 Mar 6.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>38601249</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38601249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38601249
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -13479,18 +12319,12 @@
 SO  - J Maxillofac Oral Surg. 2024 Apr;23(2):371-379. doi: 10.1007/s12663-022-01765-8. 
       Epub 2022 Jul 22.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>38601229</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38601229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38601229
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -13576,18 +12410,12 @@
 SO  - J Maxillofac Oral Surg. 2024 Apr;23(2):363-370. doi: 10.1007/s12663-022-01750-1. 
       Epub 2022 Jul 31.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>38595622</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38595622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38595622
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -13668,18 +12496,12 @@
 SO  - J Pharm Bioallied Sci. 2024 Feb;16(Suppl 1):S912-S914. doi: 
       10.4103/jpbs.jpbs_1098_23. Epub 2024 Feb 29.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>38595468</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38595468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38595468
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -13753,18 +12575,12 @@
 SO  - J Pharm Bioallied Sci. 2024 Feb;16(Suppl 1):S598-S600. doi: 
       10.4103/jpbs.jpbs_884_23. Epub 2024 Feb 29.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>38585231</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38585231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38585231
 OWN - NLM
 STAT- MEDLINE
@@ -13878,18 +12694,12 @@
 SO  - F1000Res. 2024 Mar 4;12:1377. doi: 10.12688/f1000research.134532.2. eCollection 
       2023.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>38576503</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38576503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38576503
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -13972,18 +12782,12 @@
 SO  - Korean J Neurotrauma. 2024 Feb 22;20(1):52-56. doi: 10.13004/kjnt.2024.20.e4. 
       eCollection 2024 Mar.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>38572728</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38572728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38572728
 OWN - NLM
 STAT- MEDLINE
@@ -14063,18 +12867,12 @@
 SO  - Int J Inj Contr Saf Promot. 2024 Sep;31(3):360-375. doi: 
       10.1080/17457300.2024.2335478. Epub 2024 Apr 4.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>38546451</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38546451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38546451
 OWN - NLM
 STAT- MEDLINE
@@ -14162,18 +12960,12 @@
 SO  - Traffic Inj Prev. 2024;25(4):616-622. doi: 10.1080/15389588.2024.2329637. Epub 
       2024 Mar 28.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>38531281</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38531281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38531281
 OWN - NLM
 STAT- MEDLINE
@@ -14276,18 +13068,12 @@
 SO  - Accid Anal Prev. 2024 Jun;200:107556. doi: 10.1016/j.aap.2024.107556. Epub 2024 
       Mar 25.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>38529448</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38529448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38529448
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -14396,18 +13182,12 @@
 SO  - Cureus. 2024 Feb 23;16(2):e54794. doi: 10.7759/cureus.54794. eCollection 2024 
       Feb.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>38512418</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38512418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38512418
 OWN - NLM
 STAT- MEDLINE
@@ -14544,18 +13324,12 @@
 SO  - Eur J Trauma Emerg Surg. 2024 Dec;50(6):2753-2763. doi: 
       10.1007/s00068-024-02501-2. Epub 2024 Mar 21.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>38491580</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38491580</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38491580
 OWN - NLM
 STAT- MEDLINE
@@ -14626,18 +13400,12 @@
 PST - ppublish
 SO  - Phys Rev E. 2024 Feb;109(2-1):024224. doi: 10.1103/PhysRevE.109.024224.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>38485604</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38485604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38485604
 OWN - NLM
 STAT- Publisher
@@ -14733,18 +13501,12 @@
 SO  - Chin J Traumatol. 2024 Feb 27:S1008-1275(24)00009-9. doi: 
       10.1016/j.cjtee.2024.02.003.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>38476409</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38476409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38476409
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -14841,18 +13603,12 @@
 SO  - J Neurosci Rural Pract. 2024 Jan-Mar;15(1):103-110. doi: 10.25259/JNRP_381_2023. 
       Epub 2024 Jan 18.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>38466956</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38466956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38466956
 OWN - NLM
 STAT- MEDLINE
@@ -14892,18 +13648,12 @@
 SO  - Int J Inj Contr Saf Promot. 2024 Mar;31(1):1-2. doi: 
       10.1080/17457300.2024.2322910. Epub 2024 Mar 11.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>38459970</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38459970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38459970
 OWN - NLM
 STAT- MEDLINE
@@ -15011,18 +13761,12 @@
 SO  - Eur J Orthop Surg Traumatol. 2024 May;34(4):1917-1925. doi: 
       10.1007/s00590-024-03869-y. Epub 2024 Mar 9.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>38442253</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38442253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38442253
 OWN - NLM
 STAT- MEDLINE
@@ -15107,18 +13851,12 @@
 SO  - Am J Forensic Med Pathol. 2024 Jun 1;45(2):144-150. doi: 
       10.1097/PAF.0000000000000923. Epub 2024 Mar 5.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>38427264</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38427264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38427264
 OWN - NLM
 STAT- MEDLINE
@@ -15188,18 +13926,12 @@
 PST - ppublish
 SO  - Methods Mol Biol. 2024;2761:599-622. doi: 10.1007/978-1-0716-3662-6_40.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>38425969</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38425969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38425969
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -15289,18 +14021,12 @@
 SO  - Indian J Community Med. 2024 Jan-Feb;49(1):181-188. doi: 
       10.4103/ijcm.ijcm_457_23. Epub 2024 Jan 12.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>38423069</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38423069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38423069
 OWN - NLM
 STAT- MEDLINE
@@ -15415,18 +14141,12 @@
 SO  - J Biomater Appl. 2024 Apr;38(9):975-988. doi: 10.1177/08853282241235884. Epub 
       2024 Feb 29.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>38420224</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38420224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38420224
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -15516,18 +14236,12 @@
 PST - ppublish
 SO  - J Orthop Case Rep. 2024 Feb;14(2):39-43. doi: 10.13107/jocr.2024.v14.i02.4210.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>38405239</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38405239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38405239
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -15590,18 +14304,12 @@
 SO  - J Indian Assoc Pediatr Surg. 2024 Jan-Feb;29(1):62-63. doi: 
       10.4103/jiaps.jiaps_137_23. Epub 2024 Jan 12.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>38360173</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38360173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38360173
 OWN - NLM
 STAT- MEDLINE
@@ -15709,18 +14417,12 @@
 SO  - Orthop Traumatol Surg Res. 2024 Jun;110(4):103840. doi: 
       10.1016/j.otsr.2024.103840. Epub 2024 Feb 14.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>38344375</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38344375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38344375
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -15820,18 +14522,12 @@
 SO  - Int J Clin Pediatr Dent. 2023 Nov-Dec;16(6):864-867. doi: 
       10.5005/jp-journals-10005-2671.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>38323259</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38323259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38323259
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -15942,18 +14638,12 @@
 SO  - Indian J Crit Care Med. 2024 Feb;28(2):120-125. doi: 
       10.5005/jp-journals-10071-24634.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>38314228</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38314228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38314228
 OWN - NLM
 STAT- MEDLINE
@@ -16045,18 +14735,12 @@
 SO  - Pan Afr Med J. 2023 Nov 20;46:86. doi: 10.11604/pamj.2023.46.86.29680. 
       eCollection 2023.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>38304405</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38304405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38304405
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -16128,18 +14812,12 @@
 PST - ppublish
 SO  - BJPsych Int. 2024 Feb;21(1):4-7. doi: 10.1192/bji.2023.35.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>38301802</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38301802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38301802
 OWN - NLM
 STAT- MEDLINE
@@ -16229,18 +14907,12 @@
 SO  - J Nucl Cardiol. 2025 Jan;43:101817. doi: 10.1016/j.nuclcard.2024.101817. Epub 
       2024 Jan 30.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>38295070</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38295070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38295070
 OWN - NLM
 STAT- MEDLINE
@@ -16314,18 +14986,12 @@
 PST - ppublish
 SO  - J Water Health. 2024 Jan;22(1):21-35. doi: 10.2166/wh.2023.026.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>38292689</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38292689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38292689
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -16425,18 +15091,12 @@
 SO  - J Glob Infect Dis. 2023 Nov 30;15(4):137-143. doi: 10.4103/jgid.jgid_66_23. 
       eCollection 2023 Oct-Dec.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>38292280</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38292280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38292280
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -16511,18 +15171,12 @@
 SO  - J Emerg Trauma Shock. 2023 Oct-Dec;16(4):167-170. doi: 10.4103/jets.jets_42_23. 
       Epub 2023 Nov 17.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>38292096</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38292096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38292096
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -16592,18 +15246,12 @@
 PST - ppublish
 SO  - J Orthop Case Rep. 2024 Jan;14(1):5-10. doi: 10.13107/jocr.2024.v14.i01.4126.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>38290356</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38290356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38290356
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -16692,18 +15340,12 @@
 SO  - Int J Surg Case Rep. 2024 Feb;115:109280. doi: 10.1016/j.ijscr.2024.109280. Epub 
       2024 Jan 20.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>38278836</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38278836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38278836
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -16777,18 +15419,12 @@
 PST - epublish
 SO  - Sci Rep. 2024 Jan 26;14(1):2215. doi: 10.1038/s41598-024-52426-4.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>38221988</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38221988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38221988
 OWN - NLM
 STAT- MEDLINE
@@ -16877,18 +15513,12 @@
 SO  - F1000Res. 2023 Oct 20;12:494. doi: 10.12688/f1000research.133594.2. eCollection 
       2023.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>38199661</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38199661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38199661
 OWN - NLM
 STAT- MEDLINE
@@ -16965,18 +15595,12 @@
 PST - epublish
 SO  - BMJ Case Rep. 2024 Jan 10;17(1):e258433. doi: 10.1136/bcr-2023-258433.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>38188231</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38188231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38188231
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -17122,18 +15746,12 @@
 SO  - Campbell Syst Rev. 2024 Jan 3;20(1):e1367. doi: 10.1002/cl2.1367. eCollection 
       2024 Mar.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>38165399</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38165399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38165399
 OWN - NLM
 STAT- MEDLINE
@@ -17208,18 +15826,12 @@
 SO  - Traffic Inj Prev. 2024;25(3):407-413. doi: 10.1080/15389588.2023.2292003. Epub 
       2024 Jan 2.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>38162357</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38162357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38162357
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -17303,18 +15915,12 @@
 PST - ppublish
 SO  - J Orthop Case Rep. 2023 Dec;13(12):7-10. doi: 10.13107/jocr.2023.v13.i12.4056.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>38162354</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38162354
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -17385,18 +15991,12 @@
 PST - ppublish
 SO  - J Orthop Case Rep. 2023 Dec;13(12):133-136. doi: 10.13107/jocr.2023.v13.i12.4108.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>38152538</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38152538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38152538
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -17505,18 +16105,12 @@
 SO  - Asian J Neurosurg. 2023 Sep 13;18(3):609-613. doi: 10.1055/s-0043-1772761. 
       eCollection 2023 Sep.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>38151970</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38151970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38151970
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -17605,18 +16199,12 @@
 PST - ppublish
 SO  - Ann Rehabil Med. 2024 Feb;48(1):86-93. doi: 10.5535/arm.23107. Epub 2023 Dec 26.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>38144629</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38144629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38144629
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -17684,18 +16272,12 @@
 SO  - Med J Armed Forces India. 2023 Dec;79(Suppl 1):S301-S303. doi: 
       10.1016/j.mjafi.2022.01.001. Epub 2022 Feb 28.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>38123324</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38123324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38123324
 OWN - NLM
 STAT- MEDLINE
@@ -17777,18 +16359,12 @@
 PST - epublish
 SO  - BMJ Case Rep. 2023 Dec 20;16(12):e255189. doi: 10.1136/bcr-2023-255189.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>38074229</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38074229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38074229
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -17882,18 +16458,12 @@
 SO  - J Family Med Prim Care. 2023 Oct;12(10):2434-2439. doi: 
       10.4103/jfmpc.jfmpc_789_23. Epub 2023 Oct 11.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>38066716</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38066716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38066716
 OWN - NLM
 STAT- MEDLINE
@@ -17988,18 +16558,12 @@
 SO  - J Forensic Sci. 2024 Mar;69(2):698-701. doi: 10.1111/1556-4029.15446. Epub 2023 
       Dec 8.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>38059251</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38059251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38059251
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -18097,18 +16661,12 @@
 SO  - J Neurosci Rural Pract. 2023 Oct-Dec;14(4):629-636. doi: 10.25259/JNRP_145_2023. 
       Epub 2023 Aug 7.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>38059221</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38059221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38059221
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -18202,18 +16760,12 @@
 SO  - J Neurosci Rural Pract. 2023 Oct-Dec;14(4):650-654. doi: 10.25259/JNRP_246_2023. 
       Epub 2023 Sep 4.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>38054843</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38054843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38054843
 OWN - NLM
 STAT- MEDLINE
@@ -18302,18 +16854,12 @@
 SO  - Traffic Inj Prev. 2024;25(2):228-236. doi: 10.1080/15389588.2023.2278415. Epub 
       2024 Jan 2.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>38039506</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38039506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38039506
 OWN - NLM
 STAT- MEDLINE
@@ -18364,18 +16910,12 @@
 SO  - Am J Forensic Med Pathol. 2024 Jun 1;45(2):187. doi: 
       10.1097/PAF.0000000000000898. Epub 2023 Nov 30.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>38021807</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38021807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38021807
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -18483,18 +17023,12 @@
 SO  - Cureus. 2023 Oct 19;15(10):e47332. doi: 10.7759/cureus.47332. eCollection 2023 
       Oct.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>38020418</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>38020418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 38020418
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -18577,18 +17111,12 @@
 SO  - Data Brief. 2023 Nov 4;51:109769. doi: 10.1016/j.dib.2023.109769. eCollection 
       2023 Dec.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>37975862</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>37975862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 37975862
 OWN - NLM
 STAT- MEDLINE
@@ -18665,18 +17193,12 @@
 SO  - Int J Inj Contr Saf Promot. 2024 Jun;31(2):181-193. doi: 
       10.1080/17457300.2023.2279967. Epub 2023 Nov 17.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>37974851</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>37974851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 37974851
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -18758,18 +17280,12 @@
 SO  - Indian J Otolaryngol Head Neck Surg. 2023 Dec;75(4):3889-3894. doi: 
       10.1007/s12070-023-03941-9. Epub 2023 Jun 14.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>37974432</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>37974432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 37974432
 OWN - NLM
 STAT- MEDLINE
@@ -18854,18 +17370,12 @@
 SO  - Comput Methods Biomech Biomed Engin. 2025 Jan;28(1):13-24. doi: 
       10.1080/10255842.2023.2281899. Epub 2023 Nov 16.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>37970167</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>37970167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 37970167
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -18963,18 +17473,12 @@
 SO  - Indian J Community Med. 2023 Sep-Oct;48(5):648-658. doi: 
       10.4103/ijcm.ijcm_887_22. Epub 2023 Sep 7.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>37970162</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>37970162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 37970162
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -19061,18 +17565,12 @@
 SO  - Indian J Community Med. 2023 Sep-Oct;48(5):790-793. doi: 
       10.4103/ijcm.ijcm_826_22. Epub 2023 Sep 7.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>37963663</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>37963663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 37963663
 OWN - NLM
 STAT- MEDLINE
@@ -19156,18 +17654,12 @@
 PST - epublish
 SO  - BMJ Case Rep. 2023 Nov 14;16(11):e254863. doi: 10.1136/bcr-2023-254863.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>37941639</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>37941639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 37941639
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -19240,18 +17732,12 @@
 SO  - Surg Neurol Int. 2023 Oct 13;14:369. doi: 10.25259/SNI_515_2023. eCollection 
       2023.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>37928046</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>37928046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 37928046
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -19339,18 +17825,12 @@
 SO  - Heliyon. 2023 Oct 20;9(11):e21187. doi: 10.1016/j.heliyon.2023.e21187. 
       eCollection 2023 Nov.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>37924237</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>37924237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 37924237
 OWN - NLM
 STAT- MEDLINE
@@ -19472,18 +17952,12 @@
 PST - ppublish
 SO  - J Wildl Dis. 2024 Jan 1;60(1):77-85. doi: 10.7589/JWD-D-23-00028.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>37918947</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>37918947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 37918947
 OWN - NLM
 STAT- MEDLINE
@@ -19563,18 +18037,12 @@
 PST - epublish
 SO  - BMJ Case Rep. 2023 Nov 2;16(11):e258361. doi: 10.1136/bcr-2023-258361.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>37908612</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>37908612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 37908612
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -19661,18 +18129,12 @@
 SO  - Bioinformation. 2023 Aug 31;19(8):876-880. doi: 10.6026/97320630019876. 
       eCollection 2023.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>37907309</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>37907309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 37907309
 OWN - NLM
 STAT- MEDLINE
@@ -19760,18 +18222,12 @@
 PST - epublish
 SO  - BMJ Case Rep. 2023 Oct 31;16(10):e253852. doi: 10.1136/bcr-2022-253852.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>37885653</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>37885653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 37885653
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -19833,18 +18289,12 @@
 PST - ppublish
 SO  - J Orthop Case Rep. 2023 Oct;13(10):71-74. doi: 10.13107/jocr.2023.v13.i10.3940.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>37882684</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>37882684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 37882684
 OWN - NLM
 STAT- MEDLINE
@@ -19922,18 +18372,12 @@
 SO  - Int J Inj Contr Saf Promot. 2024 Mar;31(1):111-124. doi: 
       10.1080/17457300.2023.2267040. Epub 2023 Oct 26.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>37870567</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>37870567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 37870567
 OWN - NLM
 STAT- MEDLINE
@@ -20017,18 +18461,12 @@
 SO  - Eur J Trauma Emerg Surg. 2024 Dec;50(6):2799-2805. doi: 
       10.1007/s00068-023-02378-7. Epub 2023 Oct 23.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>37838577</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>37838577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 37838577
 OWN - NLM
 STAT- MEDLINE
@@ -20164,18 +18602,12 @@
 SO  - Chin J Traumatol. 2025 Mar;28(2):138-144. doi: 10.1016/j.cjtee.2023.08.004. Epub 
       2023 Sep 23.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>37809150</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>37809150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 37809150
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -20262,18 +18694,12 @@
 PST - epublish
 SO  - Cureus. 2023 Sep 7;15(9):e44856. doi: 10.7759/cureus.44856. eCollection 2023 Sep.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>37791184</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>37791184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 37791184
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -20383,18 +18809,12 @@
 SO  - Cureus. 2023 Aug 31;15(8):e44456. doi: 10.7759/cureus.44456. eCollection 2023 
       Aug.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>37753134</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>37753134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 37753134
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -20478,18 +18898,12 @@
 PST - ppublish
 SO  - J Orthop Case Rep. 2023 Sep;13(9):122-126. doi: 10.13107/jocr.2023.v13.i09.3900.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>37743043</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>37743043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 37743043
 OWN - NLM
 STAT- MEDLINE
@@ -20588,18 +19002,12 @@
 SO  - J Oral Maxillofac Surg. 2023 Dec;81(12):1526-1548. doi: 
       10.1016/j.joms.2023.08.225. Epub 2023 Sep 9.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>37705818</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>37705818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 37705818
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -20703,18 +19111,12 @@
 SO  - Indian J Plast Surg. 2023 Jul 28;56(4):350-356. doi: 10.1055/s-0043-1771294. 
       eCollection 2023 Aug.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>37701009</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>37701009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 37701009
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -20807,18 +19209,12 @@
 SO  - Cureus. 2023 Aug 11;15(8):e43327. doi: 10.7759/cureus.43327. eCollection 2023 
       Aug.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>37692804</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>37692804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 37692804
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -20905,18 +19301,12 @@
 SO  - J Neurosci Rural Pract. 2023 Jul-Sep;14(3):413-417. doi: 
       10.25259/JNRP-2021-12-26-R1-(2260). Epub 2022 Oct 22.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>37675255</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>37675255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 37675255
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -20994,18 +19384,12 @@
 SO  - OTA Int. 2023 Sep 1;2(Suppl 1):e017. doi: 10.1097/OI9.0000000000000017. 
       eCollection 2019 Mar.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>37669084</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>37669084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 37669084
 OWN - NLM
 STAT- MEDLINE
@@ -21049,18 +19433,12 @@
 PST - ppublish
 SO  - Am J Forensic Med Pathol. 2024 Mar 1;45(1):95. doi: 10.1097/PAF.0000000000000881.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>39381696</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+  </si>
+  <si>
+    <t>39381696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 PMID- 39381696
 OWN - NLM
 STAT- PubMed-not-MEDLINE
@@ -21158,10 +19536,1995 @@
 SO  - J Trauma Inj. 2023 Sep;36(3):217-223. doi: 10.20408/jti.2023.0005. Epub 2023 Sep 
       18.
 </t>
-        </is>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="4">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr lastClr="000000" val="windowText"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="1" ang="16200000"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="1" ang="16200000"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B201"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" tabSelected="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="89.14785714285713" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+      <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+      <c r="A18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+      <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+      <c r="A20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+      <c r="A21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+      <c r="A22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+      <c r="A23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+      <c r="A24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+      <c r="A25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+      <c r="A26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+      <c r="A27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+      <c r="A28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+      <c r="A29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+      <c r="A30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+      <c r="A31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+      <c r="A32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+      <c r="A33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+      <c r="A34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+      <c r="A35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+      <c r="A36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+      <c r="A37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+      <c r="A38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+      <c r="A39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+      <c r="A40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
+      <c r="A41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
+      <c r="A42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
+      <c r="A43" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
+      <c r="A44" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+      <c r="A45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
+      <c r="A46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
+      <c r="A47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
+      <c r="A48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
+      <c r="A49" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
+      <c r="A50" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
+      <c r="A51" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
+      <c r="A52" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
+      <c r="A53" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
+      <c r="A54" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
+      <c r="A55" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
+      <c r="A56" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
+      <c r="A57" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
+      <c r="A58" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
+      <c r="A59" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
+      <c r="A60" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
+      <c r="A61" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
+      <c r="A62" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
+      <c r="A63" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
+      <c r="A64" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
+      <c r="A65" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
+      <c r="A66" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
+      <c r="A67" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
+      <c r="A68" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
+      <c r="A69" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
+      <c r="A70" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
+      <c r="A71" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
+      <c r="A72" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
+      <c r="A73" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
+      <c r="A74" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
+      <c r="A75" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
+      <c r="A76" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
+      <c r="A77" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
+      <c r="A78" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
+      <c r="A79" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
+      <c r="A80" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
+      <c r="A81" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
+      <c r="A82" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
+      <c r="A83" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
+      <c r="A84" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
+      <c r="A85" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
+      <c r="A86" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
+      <c r="A87" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
+      <c r="A88" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
+      <c r="A89" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
+      <c r="A90" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
+      <c r="A91" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
+      <c r="A92" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
+      <c r="A93" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
+      <c r="A94" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
+      <c r="A95" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
+      <c r="A96" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
+      <c r="A97" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
+      <c r="A98" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
+      <c r="A99" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
+      <c r="A100" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
+      <c r="A101" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
+      <c r="A102" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
+      <c r="A103" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
+      <c r="A104" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
+      <c r="A105" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
+      <c r="A106" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
+      <c r="A107" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
+      <c r="A108" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
+      <c r="A109" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
+      <c r="A110" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
+      <c r="A111" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
+      <c r="A112" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
+      <c r="A113" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
+      <c r="A114" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25">
+      <c r="A115" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
+      <c r="A116" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
+      <c r="A117" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
+      <c r="A118" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25">
+      <c r="A119" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
+      <c r="A120" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25">
+      <c r="A121" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25">
+      <c r="A122" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25">
+      <c r="A123" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25">
+      <c r="A124" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25">
+      <c r="A125" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25">
+      <c r="A126" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25">
+      <c r="A127" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25">
+      <c r="A128" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="17.25">
+      <c r="A129" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="17.25">
+      <c r="A130" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="17.25">
+      <c r="A131" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="17.25">
+      <c r="A132" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="17.25">
+      <c r="A133" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="17.25">
+      <c r="A134" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="17.25">
+      <c r="A135" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="17.25">
+      <c r="A136" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="17.25">
+      <c r="A137" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="17.25">
+      <c r="A138" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="17.25">
+      <c r="A139" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="17.25">
+      <c r="A140" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="17.25">
+      <c r="A141" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="17.25">
+      <c r="A142" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="17.25">
+      <c r="A143" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="17.25">
+      <c r="A144" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="17.25">
+      <c r="A145" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="17.25">
+      <c r="A146" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="17.25">
+      <c r="A147" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="17.25">
+      <c r="A148" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="17.25">
+      <c r="A149" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="17.25">
+      <c r="A150" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="17.25">
+      <c r="A151" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="17.25">
+      <c r="A152" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="17.25">
+      <c r="A153" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="17.25">
+      <c r="A154" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="17.25">
+      <c r="A155" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="17.25">
+      <c r="A156" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="17.25">
+      <c r="A157" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="17.25">
+      <c r="A158" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="17.25">
+      <c r="A159" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="17.25">
+      <c r="A160" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="17.25">
+      <c r="A161" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="17.25">
+      <c r="A162" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="17.25">
+      <c r="A163" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="17.25">
+      <c r="A164" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="17.25">
+      <c r="A165" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="17.25">
+      <c r="A166" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="17.25">
+      <c r="A167" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="17.25">
+      <c r="A168" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="17.25">
+      <c r="A169" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="17.25">
+      <c r="A170" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="17.25">
+      <c r="A171" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="17.25">
+      <c r="A172" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="17.25">
+      <c r="A173" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="17.25">
+      <c r="A174" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="17.25">
+      <c r="A175" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="17.25">
+      <c r="A176" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="17.25">
+      <c r="A177" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="17.25">
+      <c r="A178" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="17.25">
+      <c r="A179" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="17.25">
+      <c r="A180" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="17.25">
+      <c r="A181" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="17.25">
+      <c r="A182" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="17.25">
+      <c r="A183" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="17.25">
+      <c r="A184" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="17.25">
+      <c r="A185" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="17.25">
+      <c r="A186" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="17.25">
+      <c r="A187" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="17.25">
+      <c r="A188" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="17.25">
+      <c r="A189" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="17.25">
+      <c r="A190" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="17.25">
+      <c r="A191" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="17.25">
+      <c r="A192" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="1232.25">
+      <c r="A193" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="939.75">
+      <c r="A194" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="1108.5">
+      <c r="A195" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="1164.75">
+      <c r="A196" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="1041">
+      <c r="A197" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="973.5">
+      <c r="A198" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="872.25">
+      <c r="A199" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="489.75">
+      <c r="A200" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="17.25">
+      <c r="A201" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>401</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>